--- a/public/template/Update_BlackList_Template.xlsx
+++ b/public/template/Update_BlackList_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pet Project\ip_manager\thaongu_ip_manager\public\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590C9AB-1CF6-4BC6-A865-7C8A49398EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD36770F-3428-47E0-B2A1-2A2D1D6D4ADE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="23310" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
     <t>Blacklist ID</t>
   </si>
   <si>
-    <t>_id</t>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
